--- a/a2/part2/com/RMITGP/results.xlsx
+++ b/a2/part2/com/RMITGP/results.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\comp307\a2\part2\com\RMITGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,13 +24,114 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Assignment 2 Part 2</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>maxDepth</t>
+  </si>
+  <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>Mutation Rate</t>
+  </si>
+  <si>
+    <t>Crossover Rate</t>
+  </si>
+  <si>
+    <t>Elitism Rate</t>
+  </si>
+  <si>
+    <t>Result number</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>(+ (/ 46.882354 46.882354) (* (- (* X X) X) (- (* X X) X)))</t>
+  </si>
+  <si>
+    <t>(* (- (* X X) (- (- X 0.079953) 0.079953)) (- (* X X) (- X 0.079953)))</t>
+  </si>
+  <si>
+    <t>(* (+ (* (* (* X X) X) (/ (- X 2.116752) X)) (* X 1.604889)) X)</t>
+  </si>
+  <si>
+    <t>(* X (+ (- (- X 0.083071) 0.672249) (+ (* 1.118663 (/ X (+ 1.118663 (+ 1.118663 X)))) (+ (- (- (- X 0.083071) 1.118663) (- (- 1.118663 1.118663) (- 1.118663 1.118663))) (- X 1.118663)))))</t>
+  </si>
+  <si>
+    <t>(* (* 94.843773 (/ (* 25.809237 (/ (* 25.809237 X) (+ (/ (* 27.114022 X) (+ X 27.114022)) 27.243790))) (+ (/ (/ 91.135937 X) (+ (/ (/ 27.243790 X) (+ 6.934470 X)) 21.070843)) (+ X 97.367950)))) (/ X (+ X (+ (* X (/ 25.809237 25.809237)) 6.934470))))</t>
+  </si>
+  <si>
+    <t>(+ (* (+ (+ X (- X (- 1.424035 X))) (+ (/ (- (/ X 10.240603) (- (- X X) (- X 1.424035))) X) (- (+ (- X X) (- X 0.879769)) X))) X) (/ (- (- (- 1.424035 X) X) X) (+ (- X (- (- (+ X (- X 0.879769)) X) 1.424035)) X)))</t>
+  </si>
+  <si>
+    <t>(* (- (* X X) X) (- (* X X) X))</t>
+  </si>
+  <si>
+    <t>(- (* (+ (* X 2.641309) (* X 2.641309)) X) (+ X (+ X (+ (* X 2.685212) (* X X)))))</t>
+  </si>
+  <si>
+    <t>(- (* X (+ (+ (+ (+ (+ (/ (/ X (+ X X)) X) (+ (/ X 4.881190) X)) (/ (+ X (+ (+ X X) (+ (+ (/ 4.368315 25.022986) X) X))) (+ X (+ X 4.881190)))) (+ (/ X 73.539231) X)) (/ X (+ X X))) X)) (+ (/ (+ (+ (/ (+ X (+ X X)) 94.557608) (+ (/ X (/ X (+ X X))) X)) (+ X (+ X (+ X X)))) (+ (/ (+ 4.368315 (+ X X)) (+ (+ X (+ X X)) X)) (+ X X))) (+ (+ (/ (+ X X) 25.022986) X) (+ (+ (/ (+ X X) 94.557608) X) X))))</t>
+  </si>
+  <si>
+    <t>(- (* (+ (+ X X) (+ X (+ 0.917136 X))) X) (+ (+ X (+ X (+ X X))) X))</t>
+  </si>
+  <si>
+    <t>(+ (- (- (* (+ X X) (+ X X)) (+ (+ X (+ (/ (* (+ X (+ X X)) (+ X (+ X X))) (+ (* (* (+ X X) (+ X X)) (+ (+ X X) (+ X X))) (+ 31.628403 (* (+ X X) (+ X X))))) X)) (/ 5.446731 39.344854))) (+ X X)) (/ (* (+ X X) (+ X X)) (+ (* X 31.628403) (+ (/ (+ X 9.226734) 8.141379) 63.569004))))</t>
+  </si>
+  <si>
+    <t>(+ (- (+ (* X X) (/ (* (+ (* X (* X X)) (* X (* X X))) (+ (* X 7.623240) X)) 20.672361)) (* X (* X X))) (- (+ (+ (* X X) (/ 18.197218 40.252869)) (/ (* (+ (* X X) (/ X (+ (+ (+ (* X X) (/ 65.580665 40.252869)) X) (/ 15.882271 (* X 7.623240))))) (* X (* X (* X X)))) 58.668143)) (* X (+ (+ (* X X) (/ (* X (+ (* X X) (/ 71.001934 66.356712))) 15.882271)) (/ X 7.623240)))))</t>
+  </si>
+  <si>
+    <t>(- (* (* (- (* X X) X) X) X) (* (- (* X X) X) X))</t>
+  </si>
+  <si>
+    <t>(* (/ (* (/ (- (* X X) 69.812675) 65.419494) (* 74.054833 (- (* X X) X))) (+ 65.419494 (- (- (* X X) X) X))) (- X (* X X)))</t>
+  </si>
+  <si>
+    <t>(* (+ X X) (+ X (- X 2.195625)))</t>
+  </si>
+  <si>
+    <t>(* (- (+ (/ X 35.341657) X) (/ (+ (/ 9.896672 35.341657) (+ (/ (+ (/ (- X 2.657251) (/ (+ (/ (+ X X) 24.968068) (+ (/ (+ 82.272490 X) 35.341657) X)) 1.517058)) (+ X X)) 24.968068) X)) (+ (/ X 35.341657) (+ (/ X 35.341657) X)))) (+ X (+ X (+ (/ (+ (/ (+ X (+ (/ X 61.366731) X)) (- X 2.657251)) X) 27.043174) (+ X (+ (/ (+ X (+ (+ (/ X 35.341657) X) X)) 27.043174) (+ (/ X 61.366731) X)))))))</t>
+  </si>
+  <si>
+    <t>(- (* (- (* X X) X) (- (* X X) X)) (- 75.509690 76.492713))</t>
+  </si>
+  <si>
+    <t>(* (+ (/ (- (+ (+ X X) (+ X X)) 64.734460) (+ X (+ (/ (/ (+ 64.734460 69.025953) X) (+ X (+ (/ X X) (+ (/ X X) X)))) (+ (+ 20.788997 (+ (+ X (+ (+ 0.968228 X) X)) (+ (+ X (+ (+ X X) X)) X))) (+ X X))))) X) (+ (+ (/ (+ (+ 20.788997 (+ (+ 0.968228 X) X)) (+ (- (+ X X) 64.734460) (- (+ X (+ (+ X X) X)) X))) 69.025953) X) (+ (+ X X) X)))</t>
+  </si>
+  <si>
+    <t>(+ (* X (+ (+ X X) X)) (+ (- X (+ X (+ (+ (/ 5.491448 90.856446) (+ (/ (+ (+ 4.778607 X) (+ X (+ (/ 5.518015 39.431733) X))) 43.369668) (+ (+ X X) X))) X))) (* (+ (/ (+ X X) 30.534623) X) X)))</t>
+  </si>
+  <si>
+    <t>(+ (* (* X X) (* (- (- (- (- X 0.591572) 0.085902) 0.085902) 0.085902) (- (- X 0.591572) 0.591572))) (* (+ (- X X) (+ (- 0.085902 0.591572) (- (- (- X 0.591572) X) 0.591572))) (- (- X 0.591572) X)))</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,8 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +177,1144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Data for Symbolic Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.160160000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9101599999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7226599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0976600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0351600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0351600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0976600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7226599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9101599999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.160160000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF0F-4DE4-8EAD-54CDB1859BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="904649871"/>
+        <c:axId val="904650703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="904649871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904650703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="904650703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904649871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="201" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,18 +1358,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Cambria">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="02040503050406030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="HG明朝B"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="黑体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -151,20 +1395,20 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Cambria" panose="02040503050406030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="HG明朝B"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="黑体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -181,7 +1425,7 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
@@ -336,12 +1580,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.7499999999999997E-5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>12.4718</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>15.354900000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>32.140700000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>34.056899999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>30.858499999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>49.917000000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>25.077200000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>49.4086</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>34.259300000000003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>4.3081500000000004</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>12.2148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>50.2363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>36.8581</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>0.33957100000000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>19.819299999999998</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>48.992100000000001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>2.7765399999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>-1.75</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.160160000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.9101599999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.7226599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0976600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0351600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0351600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0976600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.7226599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.9101599999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15.0625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2.75</v>
+      </c>
+      <c r="B22">
+        <v>24.160160000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="201" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>